--- a/data/trans_dic/P18_6_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P18_6_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>15,22%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>10,23%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>9,34%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>7,63%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,98%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>9,89%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>6,84%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>5,52%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>91,9%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>9,54%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>8,09%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 8,89</t>
+          <t>2,28; 9,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 8,2</t>
+          <t>1,52; 8,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,71</t>
+          <t>0,56; 5,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 8,23</t>
+          <t>0,79; 7,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>86,08; 96,35</t>
+          <t>2,46; 12,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 21,3</t>
+          <t>3,6; 14,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 15,9</t>
+          <t>4,93; 17,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 14,18</t>
+          <t>10,41; 21,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 12,39</t>
+          <t>5,77; 15,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>85,25; 96,28</t>
+          <t>5,74; 13,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 13,34</t>
+          <t>4,34; 12,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 10,26</t>
+          <t>8,42; 21,15</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,6</t>
+          <t>3,52; 14,18</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 8,65</t>
+          <t>4,89; 14,35</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>87,7; 94,88</t>
+          <t>7,1; 13,46</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,37; 10,03</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 8,06</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3,21; 8,32</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 14,17</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>5,08; 12,73</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 14,32</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,53%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>16,74%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>8,78%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>14,55%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18,65%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>14,29%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>15,67%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>15,06%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>9,21%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>11,93%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>12,52%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>89,49%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>12,19%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>12,53%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>13,5%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>10,51%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>11,99%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,69; 22,97</t>
+          <t>8,09; 25,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 22,0</t>
+          <t>4,86; 25,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 20,54</t>
+          <t>5,15; 22,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,12; 21,74</t>
+          <t>7,85; 21,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,49; 96,83</t>
+          <t>5,04; 14,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,95; 22,19</t>
+          <t>3,11; 12,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 14,17</t>
+          <t>4,19; 14,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,32; 19,75</t>
+          <t>12,1; 21,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,99; 17,24</t>
+          <t>5,3; 13,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>80,49; 90,45</t>
+          <t>10,21; 19,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,31; 20,81</t>
+          <t>8,72; 17,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 16,18</t>
+          <t>13,08; 25,29</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,83; 17,63</t>
+          <t>9,88; 19,61</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,28; 17,61</t>
+          <t>10,84; 21,68</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>85,39; 92,83</t>
+          <t>11,37; 20,2</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6,27; 19,67</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>8,89; 18,76</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,25; 17,54</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>9,93; 17,96</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>7,48; 14,44</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>8,6; 15,85</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>15,05%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,28%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>12,82%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>85,39%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19,66%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>14,6%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>12,79%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>7,55%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>9,48%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>11,53%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>89,11%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>11,62%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 15,18</t>
+          <t>7,24; 14,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 10,43</t>
+          <t>4,23; 11,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,42</t>
+          <t>3,79; 9,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,76</t>
+          <t>4,55; 10,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,77; 95,32</t>
+          <t>9,48; 18,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 18,84</t>
+          <t>4,71; 11,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 11,59</t>
+          <t>4,59; 12,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 16,31</t>
+          <t>11,56; 19,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,37; 19,66</t>
+          <t>6,01; 12,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>79,64; 89,2</t>
+          <t>9,89; 16,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,38; 15,58</t>
+          <t>12,59; 19,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 9,83</t>
+          <t>15,0; 24,25</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>7,4; 11,68</t>
+          <t>10,39; 19,39</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 14,06</t>
+          <t>10,78; 20,66</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>86,05; 91,79</t>
+          <t>10,41; 15,95</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,14; 10,71</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>7,65; 12,21</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 14,46</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>13,81; 20,66</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>8,43; 14,35</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>8,46; 14,79</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>85,72%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>14,27%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>15,3%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>10,71%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>16,35%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>81,06%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>18,93%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18,24%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>11,39%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>8,11%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>12,25%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>11,56%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>83,5%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>12,17%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,68%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>14,54%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>14,83%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 15,5</t>
+          <t>3,83; 14,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 9,32</t>
+          <t>2,71; 9,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 11,42</t>
+          <t>5,15; 11,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 12,31</t>
+          <t>5,84; 12,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>80,17; 90,34</t>
+          <t>6,88; 14,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,83; 19,33</t>
+          <t>9,7; 20,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 14,21</t>
+          <t>7,35; 16,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 20,75</t>
+          <t>11,95; 19,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,18; 18,43</t>
+          <t>7,65; 14,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>75,52; 86,0</t>
+          <t>12,78; 20,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,03; 15,54</t>
+          <t>11,22; 18,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 10,9</t>
+          <t>14,06; 23,64</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>9,96; 14,71</t>
+          <t>14,35; 24,16</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 14,25</t>
+          <t>13,82; 23,63</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>79,62; 86,87</t>
+          <t>8,95; 15,05</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,04; 11,17</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 14,5</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>9,43; 14,13</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>11,96; 17,53</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>12,88; 20,36</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>11,71; 18,55</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>15,94%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,45%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>15,63%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82,82%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>13,23%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16,3%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>17,18%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>14,63%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>10,19%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>5,72%</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>11,1%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>9,29%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>89,14%</t>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>9,46%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>12,4%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>10,86%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 7,48</t>
+          <t>2,26; 7,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,67</t>
+          <t>1,26; 5,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,99</t>
+          <t>4,04; 10,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 8,49</t>
+          <t>3,18; 8,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,85; 98,28</t>
+          <t>5,23; 12,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,91; 20,71</t>
+          <t>1,71; 7,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 13,65</t>
+          <t>5,42; 13,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,48; 20,82</t>
+          <t>11,52; 20,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,29; 17,47</t>
+          <t>4,79; 13,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>76,65; 87,44</t>
+          <t>11,65; 21,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,76; 13,36</t>
+          <t>9,39; 17,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,77; 8,68</t>
+          <t>11,22; 22,13</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,41; 14,36</t>
+          <t>12,53; 22,45</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,06; 12,01</t>
+          <t>10,28; 20,26</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>85,6; 91,79</t>
+          <t>7,77; 13,35</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 8,54</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>8,62; 14,34</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>7,22; 12,38</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 15,92</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 14,39</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>9,35; 15,71</t>
         </is>
       </c>
     </row>
@@ -1535,72 +1884,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,62%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>12,55%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>7,88%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>9,17%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>87,06%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11,8%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>12,93%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>8,01%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>9,79%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>6,02%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>7,62%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>7,6%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>92,04%</t>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 10,23</t>
+          <t>3,53; 10,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 12,0</t>
+          <t>0,54; 6,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,15; 11,94</t>
+          <t>2,05; 11,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,22</t>
+          <t>0,61; 5,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>95,62; 100,0</t>
+          <t>2,34; 10,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,25; 17,17</t>
+          <t>0,0; 4,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,5; 13,39</t>
+          <t>2,27; 8,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,13; 13,47</t>
+          <t>9,08; 17,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,65; 17,68</t>
+          <t>4,84; 14,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>79,24; 92,54</t>
+          <t>6,33; 13,4</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,45; 12,89</t>
+          <t>9,02; 21,54</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,54; 10,04</t>
+          <t>7,15; 18,6</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>5,42; 11,05</t>
+          <t>7,8; 21,55</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>5,25; 11,24</t>
+          <t>4,15; 13,79</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>87,44; 95,07</t>
+          <t>7,37; 12,77</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 9,94</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 11,1</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>5,81; 13,2</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>6,14; 13,41</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>4,83; 12,67</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 10,68</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>14,99%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>9,01%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>12,94%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>85,45%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>16,48%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>14,55%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>13,39%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>11,57%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>9,72%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>9,82%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>89,05%</t>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>12,88%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>10,95%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>11,07%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,54</t>
+          <t>6,41; 10,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,73</t>
+          <t>4,08; 8,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,3</t>
+          <t>5,02; 8,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,75</t>
+          <t>5,43; 8,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,76; 94,28</t>
+          <t>7,41; 10,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,19; 16,82</t>
+          <t>5,65; 9,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,87</t>
+          <t>6,99; 10,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,51; 14,92</t>
+          <t>13,25; 16,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,08; 14,43</t>
+          <t>7,75; 11,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>83,12; 87,56</t>
+          <t>11,45; 14,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,33; 12,95</t>
+          <t>11,43; 14,79</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,23; 8,69</t>
+          <t>14,42; 18,65</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>8,57; 10,89</t>
+          <t>12,49; 16,76</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,14</t>
+          <t>11,57; 15,74</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>87,5; 90,29</t>
+          <t>10,34; 12,93</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6,32; 8,86</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>8,7; 11,1</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>8,91; 11,39</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 14,39</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>9,64; 12,41</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>9,78; 12,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,74%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25791</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19678</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9742</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14593</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26445</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3449</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>70449</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>45042</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>46543</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>38966</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>63673</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2984</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3315</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>96241</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>64721</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>56285</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>53558</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>90118</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>6432</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>7950</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11635; 45966</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7640; 43801</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2959; 26656</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3972; 36734</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11508; 56068</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1514; 6015</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2171; 7667</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>48176; 97264</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26862; 73277</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29577; 70135</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22190; 62710</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40182; 100922</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1315; 5302</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1887; 5533</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>69065; 130875</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>42313; 97118</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>37586; 83713</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>32424; 84142</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>58236; 133811</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>4033; 10117</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>5031; 11834</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>76127</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>61524</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>57094</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>74270</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>52316</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3372</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4179</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>86835</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>45547</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>73810</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>64689</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>94181</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6746</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>7210</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>162962</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>107071</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>130903</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>138960</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>146497</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>10117</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>11389</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>45561; 141604</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>27730; 142842</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29114; 125682</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>46479; 125573</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>29212; 84789</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1527; 6315</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2054; 7323</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>62799; 113956</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>27392; 69966</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>51847; 97098</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>45098; 90542</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>66046; 127748</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4666; 9259</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4986; 9975</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>123074; 218666</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>68153; 213767</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>95442; 201433</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>102630; 194640</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>107721; 194911</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>7201; 13908</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>8174; 15060</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>70558</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>50077</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>41609</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>49316</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>94223</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>104167</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>62598</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>94568</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>112470</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>141037</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>7789</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>8357</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>174725</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>112675</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>136177</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>161786</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>235260</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>12356</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>12950</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>48761; 98120</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29039; 75843</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25767; 63995</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30967; 73188</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>64098; 127107</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2836; 7073</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2789; 7566</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>80003; 131779</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42829; 88077</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>70651; 120945</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>89658; 141668</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>107636; 173981</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5545; 10344</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5887; 11285</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>142255; 217895</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>85934; 149857</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>106782; 170358</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>133482; 201272</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>192509; 287946</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>9567; 16292</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>9766; 17067</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>45200</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>34788</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>51230</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>54962</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>67216</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8237</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6628</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>107581</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>74880</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>109077</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>95392</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>124018</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>9927</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>9724</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>152781</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>109668</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>160307</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>150354</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>191234</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>18163</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>16352</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24429; 92337</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17476; 64282</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>33257; 74039</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>36743; 78234</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>45278; 92713</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5596; 11702</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4188; 9496</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>84034; 134842</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>52167; 100001</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>85841; 137145</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>73854; 121370</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>92374; 155289</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>7523; 12664</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>7364; 12596</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>120122; 201908</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>80090; 148149</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>128674; 191000</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>121478; 182007</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>157303; 230544</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>14188; 22423</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>12916; 20456</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23207</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>15140</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>33320</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>27134</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>40689</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1771</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>79776</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>41979</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>78008</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>67885</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>83771</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>8305</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>6722</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>102983</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>57119</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>111328</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>95019</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>124459</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>10076</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>10922</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11521; 37404</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6263; 28913</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20286; 51509</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15642; 41948</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>25660; 61876</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>760; 3378</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2435; 6138</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>57645; 104101</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>24088; 68034</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>58174; 107301</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>48203; 90457</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>57623; 113679</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>6056; 10851</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>4722; 9309</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>78564; 134946</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>36721; 85277</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>86323; 143605</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>72520; 124382</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>93982; 159891</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>7657; 13352</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>8492; 14276</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>31996</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11491</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>27472</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11852</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>32912</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2105</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>88999</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>59228</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>64334</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>89457</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>84499</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>8071</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>5050</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>120994</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>70718</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>91806</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>101309</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>117412</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>8673</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>7155</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>18588; 55174</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2915; 34997</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>10627; 60824</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3223; 30086</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>13273; 61103</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1035; 4055</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>64374; 120825</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>34238; 104476</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>43494; 92125</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>61768; 147595</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>51217; 133239</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>4866; 13451</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>2613; 8691</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>91113; 157753</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>42515; 123814</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>62217; 133945</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>70681; 160774</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>78736; 172030</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>5259; 13806</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>4545; 11599</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>272879</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>192699</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>220466</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>232127</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>313801</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>21997</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>26339</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>537807</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>329274</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>466340</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>468859</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>591179</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>43821</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>40378</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>810685</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>521972</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>686806</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>700986</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>904980</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>66717</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>219326; 347875</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>140253; 283918</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>172609; 304399</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>185900; 298936</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>254701; 375434</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>16945; 27457</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>21065; 32405</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>475296; 601126</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>278094; 394538</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>411741; 527636</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>411296; 532084</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>517163; 668766</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>37613; 50477</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>34866; 47453</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>724415; 906557</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>443831; 622054</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>611593; 780344</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>625380; 800204</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>809497; 1010614</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>57934; 74606</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>58925; 75548</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>